--- a/medicine/Handicap/Groupement_pour_l'insertion_des_handicapés_physiques/Groupement_pour_l'insertion_des_handicapés_physiques.xlsx
+++ b/medicine/Handicap/Groupement_pour_l'insertion_des_handicapés_physiques/Groupement_pour_l'insertion_des_handicapés_physiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupement_pour_l%27insertion_des_handicap%C3%A9s_physiques</t>
+          <t>Groupement_pour_l'insertion_des_handicapés_physiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le GIHP national est une association reconnue d'utilité publique française et la tête d'un réseau de douze association affiliées et de l'entreprise de transport adapté Synergihp. Ce réseau milite et agit pour la citoyenneté pleine et entière des personnes en situations de handicap. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupement_pour_l%27insertion_des_handicap%C3%A9s_physiques</t>
+          <t>Groupement_pour_l'insertion_des_handicapés_physiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des étudiants handicapés originaires de toute la France se rencontrent à Nancy en 1964, dans la seule résidence universitaire accessible à l'époque. Ils refusent de voir leur déficience physique devenir un obstacle à la poursuite de leurs études. 
 Créée par Gérard Crombez en 1964, l'association s'est distinguée par la création de services de transports à Paris, Nancy, Bordeaux, Brest, Strasbourg, Montpellier, Lyon, La Réunion, Marseille ou Berck, permettant ainsi aux handicapés physiques de se déplacer à l'université ou à leur travail plus facilement, pour un coût proche de celui des transports en commun.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupement_pour_l%27insertion_des_handicap%C3%A9s_physiques</t>
+          <t>Groupement_pour_l'insertion_des_handicapés_physiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le réseau GIHP :
 représente plus de 4 000 adhérents,
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Groupement_pour_l%27insertion_des_handicap%C3%A9s_physiques</t>
+          <t>Groupement_pour_l'insertion_des_handicapés_physiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,13 +604,15 @@
           <t>Biographie de Gérard Crombez</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 26 mars 1941, à Tulle, titulaire d'un CES de mathématiques générales et de physique, et d'un CEA de mathématiques appliquées, il fonde le groupement à Nancy, en 1964.
 Son idée vient de l'inexistence, au milieu des années 1960, de structures appropriées aux handicapés pour faciliter leurs déplacements, leur mobilité, leur autonomie tant aux travers de leurs études que de leur vie quotidienne.
 Il rencontre successivement Jean-Jacques Servan-Schreiber, Simone Veil, Alice Saunier-Seité, Pierre Bérégovoy, qui, dans le cadre de leurs mandats respectifs, lui apportent leurs soutiens.
 Il sensibilise l'opinion et les hommes d'État en s'écriant le 27 mars 1971 :
-« Des partis politiques défendent à juste titre les classes défavorisées dont trop peu de représentants accèdent aux amphithéâtre (éducation)s, mais qui, je vous le demande, montera sur les barricades à la place et pour les handicapés physiques ! »[4].
+« Des partis politiques défendent à juste titre les classes défavorisées dont trop peu de représentants accèdent aux amphithéâtre (éducation)s, mais qui, je vous le demande, montera sur les barricades à la place et pour les handicapés physiques ! ».
 Il lutte pour obtenir des pouvoirs publics une reconnaissance et rejeter tout ce qui ressemble à de la pitié. 
 Il est invité en 1978 par le journal japonais le Asahi Shinbun, un des plus gros quotidiens japonais, à participer à un congrès international sur l'homme et le transport à Tokyo.
 Il meurt lors d'un de ses nombreux voyages, à Bali en Indonésie, le 4 septembre 1980, des suites de sa maladie.
